--- a/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.2692292661397748</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.468405178594345</v>
+        <v>1.468405178594346</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.2010950134736823</v>
@@ -664,7 +664,7 @@
         <v>-0.4844786929191068</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.278410033859798</v>
+        <v>2.278410033859796</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1067016342673</v>
+        <v>-0.1596275017467943</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.402828605996744</v>
+        <v>-2.342458666571198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2340401262340607</v>
+        <v>-0.2261765214775167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.464079960784291</v>
+        <v>-4.734818977067153</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.0329891216962</v>
+        <v>-3.342839500073891</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.303336540723717</v>
+        <v>-2.170682832355455</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.481381575172423</v>
+        <v>-1.784937591228088</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.150412571484416</v>
+        <v>-2.056414314124602</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.3164956429022841</v>
+        <v>-0.09998876781341459</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.686984695494599</v>
+        <v>4.605206273879692</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.354649189271463</v>
+        <v>1.407470661397438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.744595755891597</v>
+        <v>7.718015786630642</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8404384078212739</v>
+        <v>0.8317535523132755</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.698217273530269</v>
+        <v>2.748212531512594</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.654825078239872</v>
+        <v>6.609141253441611</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.100931274435856</v>
+        <v>1.910136648549001</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.294649900017351</v>
+        <v>1.241167347425427</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.360887651369914</v>
+        <v>5.639805393524502</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.05157963808680394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2813208562451135</v>
+        <v>0.2813208562451138</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.05419605705746253</v>
@@ -769,7 +769,7 @@
         <v>-0.1305692987161269</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.614042278136951</v>
+        <v>0.6140422781369506</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08334298323639518</v>
+        <v>-0.06356909792504346</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7810428890623948</v>
+        <v>-0.7723552022379934</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1733718023334831</v>
+        <v>-0.2118320649809275</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6924006581997489</v>
+        <v>-0.706523871966292</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4808560665979415</v>
+        <v>-0.5188589944182267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4065322092962728</v>
+        <v>-0.3879423909173892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3286921629575579</v>
+        <v>-0.3889786675000119</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.471026292127183</v>
+        <v>-0.4852378330884638</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1097629023813909</v>
+        <v>-0.04682625751690273</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.343881265037265</v>
+        <v>3.905883941738532</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.040845193102798</v>
+        <v>1.284094598272126</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.97831902950549</v>
+        <v>5.227944432162247</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2587501814443884</v>
+        <v>0.2387129562648903</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.709762816148927</v>
+        <v>0.7052486103202191</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.523859420831905</v>
+        <v>1.581877459134626</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7537402436691418</v>
+        <v>0.6398314592255658</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4688807119720603</v>
+        <v>0.454337141472466</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.774876551983548</v>
+        <v>1.893830048999699</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.201218161879277</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.496781128322608</v>
+        <v>2.496781128322609</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.07161085475225065</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4399121797825376</v>
+        <v>-0.3532303524041275</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02153188897333295</v>
+        <v>-0.1210376245578987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.342999735181733</v>
+        <v>2.055393280882795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.378031706418531</v>
+        <v>-4.930478483683316</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.26019773298505</v>
+        <v>-5.116724868025488</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9063653210381331</v>
+        <v>-1.053639053782086</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.88206936812659</v>
+        <v>-1.895079387565112</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.650372133481999</v>
+        <v>-1.731187824853879</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.822816976612625</v>
+        <v>1.912367159560675</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.744010607805582</v>
+        <v>4.192412851526451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.58182747647913</v>
+        <v>4.544705423536537</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.227676011245487</v>
+        <v>9.50093487190175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7690619072365378</v>
+        <v>0.8639915627725403</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6970101673049985</v>
+        <v>0.5898572986284434</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.468916406131034</v>
+        <v>6.580535667569509</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.627402549825367</v>
+        <v>1.736883481189831</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.005858918637507</v>
+        <v>1.940258545401665</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.770171919536637</v>
+        <v>7.075979783792929</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2683492835540177</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3043812006368997</v>
+        <v>0.3043812006368999</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01301879232853895</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.119136327890716</v>
+        <v>-0.1289845771654421</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.028563789150745</v>
+        <v>-0.06952391783820239</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5415512580084271</v>
+        <v>0.4486033471268885</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5168880444068809</v>
+        <v>-0.5203556204577807</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5454018526833606</v>
+        <v>-0.5301073805880426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0982650734495646</v>
+        <v>-0.116983462975626</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2974143695675133</v>
+        <v>-0.2911401072794258</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2559999451635701</v>
+        <v>-0.2646650901627022</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2611870673527181</v>
+        <v>0.2954636165715579</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.787116266466031</v>
+        <v>1.838120431376917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.054582665993578</v>
+        <v>1.874845704799438</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.979671113077469</v>
+        <v>3.620015574763637</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1225723091943262</v>
+        <v>0.1427704258105504</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1246983888352463</v>
+        <v>0.1061482409483824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9600860882763452</v>
+        <v>0.949549643239319</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3499097746852842</v>
+        <v>0.3824999330858872</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4622822503537903</v>
+        <v>0.4404212014173438</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.379428159237194</v>
+        <v>1.536057125664575</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.7289984234894936</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.333733127066579</v>
+        <v>3.333733127066581</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.208682103038671</v>
@@ -1092,7 +1092,7 @@
         <v>-0.41093668850345</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.093564416134047</v>
+        <v>3.093564416134046</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8308883340708478</v>
+        <v>-0.7361178772345632</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.471052826663252</v>
+        <v>-2.569981311805557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1391452295350087</v>
+        <v>0.0655929188535158</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.907456040689053</v>
+        <v>1.625251939394047</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.218677075699619</v>
+        <v>-3.167717286471627</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5936251228361286</v>
+        <v>0.516119400996875</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.289507697048485</v>
+        <v>1.259600218841169</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.320649041820421</v>
+        <v>-2.06350541912994</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.182631388121804</v>
+        <v>1.267443751715708</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.118951635759556</v>
+        <v>4.449392027555922</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.424362043170159</v>
+        <v>2.441602872101072</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.745988176785028</v>
+        <v>5.930718307236779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.057219378293382</v>
+        <v>7.686248787635049</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.016456836949406</v>
+        <v>1.905818924465441</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.986231675595245</v>
+        <v>6.122705007021557</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.198325796090622</v>
+        <v>5.203533741703869</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.289092757524087</v>
+        <v>1.411289713945502</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.086900629585326</v>
+        <v>4.980004833743273</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1111526150780565</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5083044669315909</v>
+        <v>0.5083044669315911</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.56924131083587</v>
@@ -1197,7 +1197,7 @@
         <v>-0.0729028715598618</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5488186759690742</v>
+        <v>0.548818675969074</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1487820894832444</v>
+        <v>-0.1399035346247597</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4157629254999457</v>
+        <v>-0.4408378679148856</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01317220367583818</v>
+        <v>-0.00458804656737303</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2409762582640648</v>
+        <v>0.1893983644273868</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4186638769775644</v>
+        <v>-0.4239294266577699</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07003557831881886</v>
+        <v>0.04919344260703854</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1889150938549681</v>
+        <v>0.1809295918832942</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3580547516310942</v>
+        <v>-0.3176248041204776</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1865397213337079</v>
+        <v>0.1822914793742359</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.155498210464518</v>
+        <v>1.273527599171552</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7205239085961243</v>
+        <v>0.7007425946211497</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.730955988807886</v>
+        <v>1.715191032958756</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.567804768557199</v>
+        <v>1.407930748133115</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4134521002564208</v>
+        <v>0.3660989744420506</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.214593337286978</v>
+        <v>1.150041125802401</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.09231932951638</v>
+        <v>1.100098000590838</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2695349770383537</v>
+        <v>0.2968186254519406</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.080586873423811</v>
+        <v>1.016873211575267</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.053657265940386</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.474226377450008</v>
+        <v>5.474226377450007</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.829719964554551</v>
@@ -1297,7 +1297,7 @@
         <v>2.463430466557223</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.546822564332488</v>
+        <v>3.546822564332492</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>6.177588437226963</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.249006224682437</v>
+        <v>1.492710603823051</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.797696341857506</v>
+        <v>2.417282396705665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.561074275277145</v>
+        <v>2.561124952958025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.23058264414788</v>
+        <v>4.214718337903649</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9107282834521666</v>
+        <v>-1.115364367717075</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1939307931727573</v>
+        <v>0.2461310994647379</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.884435045762324</v>
+        <v>3.777730249153497</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.854623316822402</v>
+        <v>1.653437298070696</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.419301132912384</v>
+        <v>2.28449113481601</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.877787832283846</v>
+        <v>7.79303697098277</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.195800671362834</v>
+        <v>9.008375889933781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.334574977606266</v>
+        <v>8.395096105350957</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.88493773427298</v>
+        <v>12.17020360245491</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.01982521376359</v>
+        <v>5.81483945436174</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.510224376426406</v>
+        <v>6.373038291566808</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.800203416931494</v>
+        <v>8.624378899852292</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.5798681107328</v>
+        <v>6.527551551105897</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.734336989451592</v>
+        <v>6.756178698383568</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.2847332197665285</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4099560439773045</v>
+        <v>0.4099560439773048</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.9371065779507168</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1622763527899331</v>
+        <v>0.2074034351918054</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3794998463427897</v>
+        <v>0.3967014891102767</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3872176875727505</v>
+        <v>0.3610075246578054</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3953884653525614</v>
+        <v>0.3906628598517965</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.089656205191048</v>
+        <v>-0.1102861258268129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.005068680042961595</v>
+        <v>0.01934222934225103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4916937845716634</v>
+        <v>0.4899995918715974</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2308573457965756</v>
+        <v>0.2280283336918607</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3034847424881794</v>
+        <v>0.2884682215369182</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.362565196688788</v>
+        <v>2.5650250742083</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.833609869607461</v>
+        <v>2.947634531367129</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.642767432919694</v>
+        <v>2.658849321473073</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.685515145448036</v>
+        <v>1.854776073692573</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.841455066998428</v>
+        <v>0.8727242965984376</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9435103376775661</v>
+        <v>0.9599598513503959</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.636025154712574</v>
+        <v>1.607447992586758</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.239139732117511</v>
+        <v>1.204137384445966</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.262094955790718</v>
+        <v>1.273302024485575</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>8.85928158695136</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.571948103111762</v>
+        <v>8.571948103111765</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.781574043734834</v>
@@ -1520,7 +1520,7 @@
         <v>6.08319932046041</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>6.73174413091809</v>
+        <v>6.731744130918087</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1354340149925352</v>
+        <v>0.4450213923318095</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.9504789447045753</v>
+        <v>-0.8472299077997072</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.18908060402091</v>
+        <v>0.8338479152942282</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.599383517544384</v>
+        <v>2.718850116927175</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.376184453853546</v>
+        <v>4.289426919165514</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.330489950500144</v>
+        <v>4.86094022015862</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.593981136432375</v>
+        <v>2.983708914042531</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.085489413610719</v>
+        <v>2.939055472693278</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.958283508108148</v>
+        <v>4.126477377527623</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.103956374930192</v>
+        <v>8.309418825420387</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.68449978764308</v>
+        <v>7.08491371470405</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.005630422038525</v>
+        <v>8.291458446711932</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.9652068970639</v>
+        <v>12.04147336101374</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.44796526319523</v>
+        <v>13.57460266374387</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.99848695988537</v>
+        <v>12.48152204360478</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.981000307053314</v>
+        <v>9.107549676779737</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.924324583315988</v>
+        <v>9.123958578569265</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.996802559556004</v>
+        <v>9.49165705599175</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.956319326360544</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9253029780246887</v>
+        <v>0.925302978024689</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.7018270777678849</v>
@@ -1625,7 +1625,7 @@
         <v>0.7384414642557022</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.8171685212270262</v>
+        <v>0.8171685212270258</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.006961089344403111</v>
+        <v>0.03291383786812027</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1035145297815709</v>
+        <v>-0.1041107492133983</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1271218392027108</v>
+        <v>0.07520704456733315</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2055964395215536</v>
+        <v>0.2699307746970473</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3795023364290624</v>
+        <v>0.3860689602225791</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3158492860405278</v>
+        <v>0.4124824995297742</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2705327163994455</v>
+        <v>0.2738372158340557</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3041810089027216</v>
+        <v>0.3028081566047784</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3737832276361391</v>
+        <v>0.4017053595739111</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.470595403574842</v>
+        <v>1.677863478843256</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.210029647631283</v>
+        <v>1.36934936525189</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.543110807606038</v>
+        <v>1.624451905666404</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.614000254790521</v>
+        <v>1.728276161305225</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.852535151066666</v>
+        <v>1.944013144454011</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.684469479683867</v>
+        <v>1.819108622516491</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.318616206440743</v>
+        <v>1.320844247380357</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.301296194002799</v>
+        <v>1.321303597062553</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.334617005951031</v>
+        <v>1.416077418978982</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>2.032081962419197</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.620085459324259</v>
+        <v>5.620085459324256</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.532001667358019</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.143266182233739</v>
+        <v>-4.802870764574219</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.679720339031119</v>
+        <v>-8.426279630566832</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.311560390091043</v>
+        <v>-1.956912871168812</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.2237923137261615</v>
+        <v>-0.3775275060587805</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.321584842906693</v>
+        <v>-3.221432068086675</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.8790995004893813</v>
+        <v>1.144597743283291</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.09101492378892759</v>
+        <v>-0.2905673427107828</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.953852706198593</v>
+        <v>-3.879442687364894</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.04057263087102</v>
+        <v>0.8458898599779123</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.136116535805343</v>
+        <v>6.954616085138027</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.703650672869672</v>
+        <v>1.004683075199877</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.336629171582816</v>
+        <v>6.98953921422511</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.94914523628091</v>
+        <v>10.72409512408264</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.494264441159773</v>
+        <v>7.331624408758497</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.22379279693355</v>
+        <v>10.06560665388021</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.298014682972013</v>
+        <v>7.72690309837738</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.921056093135276</v>
+        <v>3.025651666354963</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.325276189607188</v>
+        <v>7.320415069179136</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1481469756616654</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4097269102117223</v>
+        <v>0.409726910211722</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2850081250449762</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3243644476887013</v>
+        <v>-0.3401016362565368</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5979924421467135</v>
+        <v>-0.61003815748298</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1652699276054924</v>
+        <v>-0.1423176143210118</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02280590607982666</v>
+        <v>-0.03816838657446415</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2007654072008195</v>
+        <v>-0.1943064042350304</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06616136483835616</v>
+        <v>0.06116834765802229</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.02984666402717529</v>
+        <v>-0.02341443376449159</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2828807527170555</v>
+        <v>-0.2760643890595548</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.05919525199584738</v>
+        <v>0.05589897429778368</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8568261407392884</v>
+        <v>0.8053151174029021</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2285242695193048</v>
+        <v>0.2165201422397155</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.9068946275521086</v>
+        <v>0.876804151160837</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.9960462119931023</v>
+        <v>0.9592903164313209</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.677519833077199</v>
+        <v>0.6906867724994133</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9590568245297956</v>
+        <v>0.9013662787126974</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.674797048806107</v>
+        <v>0.6905550249002569</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.285457314545823</v>
+        <v>0.2753381375320438</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.7019735908290878</v>
+        <v>0.7027489765458855</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>11.38961163828684</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>14.04988013774799</v>
+        <v>14.049880137748</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.1763478165343774</v>
+        <v>-0.2461944913787704</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.2572075798142589</v>
+        <v>1.043877865771869</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.056540500520421</v>
+        <v>6.222126610599818</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8.473079837124168</v>
+        <v>8.206394095174401</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>8.273374840345854</v>
+        <v>8.492845946489965</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>11.1006690067504</v>
+        <v>11.08796495182858</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>7.377763324111484</v>
+        <v>6.742351456042235</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>7.007519887082491</v>
+        <v>6.644196301461119</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.080657412925</v>
+        <v>10.21178580403208</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.21594001729625</v>
+        <v>11.76855741408861</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.44395799716944</v>
+        <v>12.33964066032021</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.14405527863277</v>
+        <v>16.72514298573146</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20.00076000440911</v>
+        <v>20.28819684204879</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>20.69052850247785</v>
+        <v>20.70349263394498</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>20.15594478048753</v>
+        <v>20.62301229115518</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>15.59542678252184</v>
+        <v>15.19331281164437</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>15.5733896532772</v>
+        <v>15.39530635955253</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>17.45180865788526</v>
+        <v>17.40029834556998</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.06234740014783263</v>
+        <v>-0.04881326371224603</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.01891250410599682</v>
+        <v>0.04735204465922092</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.473265875023859</v>
+        <v>0.463396693890087</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.6181130756702746</v>
+        <v>0.5827766741281977</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.6132377526383183</v>
+        <v>0.6078965523989399</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7572583266475759</v>
+        <v>0.7908890235350624</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6063773742347698</v>
+        <v>0.5380607800369515</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.551353544530079</v>
+        <v>0.5298508486715544</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.7839348917368015</v>
+        <v>0.8080587772576867</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.910158417319944</v>
+        <v>1.955720735356013</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.854474569006279</v>
+        <v>1.964456954088536</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.756836242716248</v>
+        <v>2.801477940477383</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.536888143516405</v>
+        <v>2.374920950878703</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.644152421355868</v>
+        <v>2.407289734583077</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.534651754549424</v>
+        <v>2.718590495213679</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.964338967146014</v>
+        <v>1.826211553626409</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.847371490786882</v>
+        <v>1.874943387541944</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.145055888495353</v>
+        <v>2.133353614578009</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>2.311430131281165</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5.478572149829134</v>
+        <v>5.478572149829133</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>4.815909475456018</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.806975015842883</v>
+        <v>1.867426310253741</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.1175368918432</v>
+        <v>1.155527039281373</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4.054053195962841</v>
+        <v>4.138269632100258</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.306486859561343</v>
+        <v>3.379692998301596</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.621312195008139</v>
+        <v>1.702101872035239</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.815104795405023</v>
+        <v>4.808277680719339</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.99421327321911</v>
+        <v>2.902086327342703</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.845489312106749</v>
+        <v>1.900823596178013</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>4.784850559854815</v>
+        <v>4.905161691271266</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.34018963330918</v>
+        <v>4.252984481450624</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.557039325010636</v>
+        <v>3.515317009219789</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.721781081406062</v>
+        <v>6.739538768816013</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.464785357587221</v>
+        <v>6.341964214907859</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.872070791906661</v>
+        <v>4.728140137717235</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>7.575359718968579</v>
+        <v>7.583438252787035</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.925557498211294</v>
+        <v>4.899510561804914</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.765627902669149</v>
+        <v>3.868161504578155</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>6.738643298386688</v>
+        <v>6.845056597450111</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.4561096969208678</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>1.081075239523956</v>
+        <v>1.081075239523955</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.5679734713974239</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.322671707476879</v>
+        <v>0.3187951034505948</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1962730622136809</v>
+        <v>0.2013077866404379</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.7238178081697927</v>
+        <v>0.7181174655732735</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.3645273886602785</v>
+        <v>0.3591824072767574</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1744819970177182</v>
+        <v>0.1849910029860844</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5076496883991386</v>
+        <v>0.5094454644076476</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4133783757157441</v>
+        <v>0.3998806585470983</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2538654849098446</v>
+        <v>0.259103886906986</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.6557576292325681</v>
+        <v>0.6636625055459495</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.9555874310620694</v>
+        <v>0.935836319968508</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.7811260475576052</v>
+        <v>0.7851182539447625</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.483911930922689</v>
+        <v>1.468528794999527</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8348533177188182</v>
+        <v>0.8311082649554713</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6175265113033408</v>
+        <v>0.6134882622521458</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9758195919292194</v>
+        <v>0.9779056479402138</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7685002594879368</v>
+        <v>0.7768119640861644</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5915048197606176</v>
+        <v>0.6096201986119394</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.048530776792529</v>
+        <v>1.077119595262273</v>
       </c>
     </row>
     <row r="52">
